--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C25D64-9268-4173-9121-324A7B56CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D445D31-44F0-4A2F-8B02-2CB543B74EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="359">
   <si>
+    <t>Inventory By Shop</t>
+  </si>
+  <si>
     <t>Exported On: 12/25/2024 09:21 PM</t>
   </si>
   <si>
@@ -1096,9 +1099,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>dsadasdsad</t>
   </si>
 </sst>
 </file>
@@ -1479,14 +1479,14 @@
   <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1566,2262 +1566,2262 @@
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>19.239999999999998</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>1.06</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>4.6399999999999997</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>1.81</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>6.71</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>11.47</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>534.99</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>10.33</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>17.53</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>437.63</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>647.35</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>492.2</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>17.100000000000001</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>37.44</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>40.11</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>37.44</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <v>37.44</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>10.33</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <v>23.53</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>5.87</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>5.87</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>52.42</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>53.49</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33">
         <v>9.58</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34">
         <v>1.1100000000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35">
         <v>23.51</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>11.76</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>13.24</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38">
         <v>7.47</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>5.34</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <v>0.67</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41">
         <v>0.67</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42">
         <v>0.6</v>
       </c>
       <c r="G42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43">
         <v>0.6</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44">
         <v>32.07</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>21.31</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46">
         <v>1.92</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>2.3199999999999998</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48">
         <v>7.47</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <v>7.47</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50">
         <v>8.99</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51">
         <v>9.19</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>13.19</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>13.19</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F54">
         <v>7.09</v>
       </c>
       <c r="G54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55">
         <v>7.09</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57">
         <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F58">
         <v>39.99</v>
       </c>
       <c r="H58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59">
         <v>10.65</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60">
         <v>2.08</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61">
         <v>2.4900000000000002</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F62">
         <v>2.04</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D63">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63">
         <v>1.98</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>91.58</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>34.229999999999997</v>
       </c>
       <c r="G65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F66">
         <v>4.54</v>
       </c>
       <c r="G66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>100.33</v>
       </c>
       <c r="H67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F68">
         <v>43.85</v>
       </c>
       <c r="H68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F69">
         <v>1.61</v>
       </c>
       <c r="G69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70">
         <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F70">
         <v>0.45</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71">
         <v>2.04</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>21.39</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73">
         <v>352.03</v>
       </c>
       <c r="H73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F74">
         <v>73.83</v>
       </c>
       <c r="H74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F75">
         <v>171.19</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76">
         <v>95.23</v>
       </c>
       <c r="H76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77">
         <v>191.53</v>
       </c>
       <c r="H77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78">
         <v>37.450000000000003</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79">
         <v>255.73</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F80">
         <v>170.13</v>
       </c>
       <c r="H80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81">
         <v>191.53</v>
       </c>
       <c r="H81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F82">
         <v>576.73</v>
       </c>
       <c r="H82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F83">
         <v>26.75</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84">
         <v>56</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F84">
         <v>267.49</v>
       </c>
       <c r="H84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F85">
         <v>95.23</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F86">
         <v>199.99</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F87">
         <v>159</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F88">
         <v>255.73</v>
       </c>
       <c r="H88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D89">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F89">
         <v>6.96</v>
       </c>
       <c r="H89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <v>37.17</v>
       </c>
       <c r="H90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F91">
         <v>6.72</v>
       </c>
       <c r="G91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>0.91</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>0.91</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>0.91</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>0.91</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>0.91</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>0.91</v>
       </c>
       <c r="H97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <v>0.91</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99">
         <v>0.91</v>
       </c>
       <c r="H99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <v>0.91</v>
       </c>
       <c r="H100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F101">
         <v>0.91</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D102">
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F102">
         <v>8.5399999999999991</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D103">
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103">
         <v>6.94</v>
       </c>
       <c r="G103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F104">
         <v>7.64</v>
       </c>
       <c r="G104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105">
         <v>17.64</v>
       </c>
       <c r="G105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F106">
         <v>12.82</v>
       </c>
       <c r="G106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F107">
         <v>3.2</v>
       </c>
       <c r="G107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F108">
         <v>5</v>
@@ -3829,151 +3829,151 @@
     </row>
     <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D109">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F109">
         <v>55.64</v>
       </c>
       <c r="H109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110">
         <v>9.6199999999999992</v>
       </c>
       <c r="G110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F111">
         <v>8.5299999999999994</v>
       </c>
       <c r="G111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F112">
         <v>5.34</v>
       </c>
       <c r="H112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D113">
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F113">
         <v>7.29</v>
       </c>
       <c r="H113" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D114">
         <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F114">
         <v>0.33</v>
       </c>
       <c r="G114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F115">
         <v>37.450000000000003</v>
@@ -3981,1581 +3981,1581 @@
     </row>
     <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D116">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F116">
         <v>13.89</v>
       </c>
       <c r="G116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F117">
         <v>37.450000000000003</v>
       </c>
       <c r="H117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D118">
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F118">
         <v>37.450000000000003</v>
       </c>
       <c r="H118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D119">
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F119">
         <v>37.450000000000003</v>
       </c>
       <c r="H119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D120">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F120">
         <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D121">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F121">
         <v>10.69</v>
       </c>
       <c r="H121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F122">
         <v>373.43</v>
       </c>
       <c r="G122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F123">
         <v>373.43</v>
       </c>
       <c r="G123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F124">
         <v>272.85000000000002</v>
       </c>
       <c r="G124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125">
         <v>272.85000000000002</v>
       </c>
       <c r="G125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F126">
         <v>235.56</v>
       </c>
       <c r="H126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F127">
         <v>266.75</v>
       </c>
       <c r="H127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F128">
         <v>11.76</v>
       </c>
       <c r="G128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F129">
         <v>10.68</v>
       </c>
       <c r="G129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F130">
         <v>3.19</v>
       </c>
       <c r="G130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D131">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F131">
         <v>12.82</v>
       </c>
       <c r="G131" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F132">
         <v>11.22</v>
       </c>
       <c r="G132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D133">
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F133">
         <v>10.15</v>
       </c>
       <c r="G133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D134">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F134">
         <v>0.39</v>
       </c>
       <c r="G134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D135">
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F135">
         <v>0.38</v>
       </c>
       <c r="G135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D136">
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F136">
         <v>0.39</v>
       </c>
       <c r="G136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D137">
         <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F137">
         <v>0.38</v>
       </c>
       <c r="G137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D138">
         <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F138">
         <v>3.18</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D139">
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F139">
         <v>7.46</v>
       </c>
       <c r="G139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F140">
         <v>3.19</v>
       </c>
       <c r="G140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F141">
         <v>3.83</v>
       </c>
       <c r="G141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F142">
         <v>10.15</v>
       </c>
       <c r="G142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143">
         <v>127.33</v>
       </c>
       <c r="G143" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F144">
         <v>127.33</v>
       </c>
       <c r="G144" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F145">
         <v>25.67</v>
       </c>
       <c r="G145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F146">
         <v>46.86</v>
       </c>
       <c r="G146" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F147">
         <v>12.29</v>
       </c>
       <c r="G147" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F148">
         <v>14.41</v>
       </c>
       <c r="G148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F149">
         <v>11.76</v>
       </c>
       <c r="G149" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F150">
         <v>21.2</v>
       </c>
       <c r="H150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F151">
         <v>21.39</v>
       </c>
       <c r="G151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F152">
         <v>1.31</v>
       </c>
       <c r="G152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H152" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F153">
         <v>9.61</v>
       </c>
       <c r="G153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D154">
         <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F154">
         <v>4.26</v>
       </c>
       <c r="G154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F155">
         <v>37.659999999999997</v>
       </c>
       <c r="G155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C156" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F156">
         <v>2.66</v>
       </c>
       <c r="G156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F157">
         <v>4.78</v>
       </c>
       <c r="G157" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B158" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F158">
         <v>3.95</v>
       </c>
       <c r="G158" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B159" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D159">
         <v>6</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F159">
         <v>9.6199999999999992</v>
       </c>
       <c r="G159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F160">
         <v>9.6199999999999992</v>
       </c>
       <c r="G160" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B161" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F161">
         <v>19.25</v>
       </c>
       <c r="G161" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B162" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D162">
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F162">
         <v>11.76</v>
       </c>
       <c r="G162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D163">
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F163">
         <v>6.41</v>
       </c>
       <c r="G163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F164">
         <v>7.48</v>
       </c>
       <c r="G164" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D165">
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F165">
         <v>11.76</v>
       </c>
       <c r="G165" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F166">
         <v>8.5500000000000007</v>
       </c>
       <c r="G166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F167">
         <v>2.97</v>
       </c>
       <c r="G167" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F168">
         <v>6.41</v>
       </c>
       <c r="G168" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B169" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F169">
         <v>7.48</v>
       </c>
       <c r="G169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C170" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D170">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F170">
         <v>1.28</v>
       </c>
       <c r="G170" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H170" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B171" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F171">
         <v>5.55</v>
       </c>
       <c r="G171" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D172">
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F172">
         <v>5.34</v>
       </c>
       <c r="G172" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B173" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D173">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F173">
         <v>6.4</v>
       </c>
       <c r="G173" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C174" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D174">
         <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F174">
         <v>2.3199999999999998</v>
       </c>
       <c r="G174" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B175" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D175">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F175">
         <v>105.93</v>
       </c>
       <c r="G175" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F176">
         <v>73.83</v>
       </c>
       <c r="G176" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F177">
         <v>12.27</v>
       </c>
       <c r="G177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D178">
         <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F178">
         <v>10.56</v>
       </c>
       <c r="G178" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B179" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D179">
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F179">
         <v>2.4500000000000002</v>
       </c>
       <c r="G179" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F180">
         <v>8.24</v>
       </c>
       <c r="G180" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F181">
         <v>5.99</v>
       </c>
       <c r="G181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H181" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C182" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D182">
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F182">
         <v>5.99</v>
       </c>
       <c r="G182" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D184">
         <v>801</v>
@@ -5573,7 +5573,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:H184 B1:H1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H184" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="376" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 04:43 AM</t>
+      <t>12/26/2024 05:05 AM</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
       <rPr>
         <b val="0"/>
       </rPr>
-      <t>Yes</t>
+      <t>No</t>
     </r>
   </si>
   <si>
@@ -78,135 +78,1085 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>Appliances</t>
   </si>
   <si>
+    <t>3/4" x 18" Water Heater Supply Line</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6831555</t>
+  </si>
+  <si>
     <t>6" Drip Pan</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
     <t>6" GE drip pan</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" GE element</t>
+  </si>
+  <si>
+    <t>469-0610</t>
+  </si>
+  <si>
+    <t>Menards</t>
+  </si>
+  <si>
     <t>6" Heating Element</t>
   </si>
   <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
     <t>8" GE element</t>
   </si>
   <si>
+    <t>469-0612</t>
+  </si>
+  <si>
     <t>8" Heating element</t>
   </si>
   <si>
     <t>Criterion Crisper Drawer</t>
   </si>
   <si>
+    <t>Crisper Drawer for fridge</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CTMR180M1W</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
     <t>15-Amp White Duplex Outlet - 10 pk</t>
   </si>
   <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk
+</t>
+  </si>
+  <si>
+    <t>3534371</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>AA-Batteries</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5756024</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
     <t>B10 FAN Light Bulbs - 60 W</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Baseboard heater</t>
+  </si>
+  <si>
+    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
     <t>Carbon Monoxide Detector</t>
   </si>
   <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>FireX Direct Wire Ionization Smoke Alarm</t>
   </si>
   <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
     <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Replacement light cover w grill</t>
+  </si>
+  <si>
+    <t>611-2202</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
     <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
   </si>
   <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
     <t>White 20-Amp Side Wire Single Outlet</t>
   </si>
   <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Zzznot use</t>
+  </si>
+  <si>
     <t>Zzzz do not use</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6 pk
+</t>
+  </si>
+  <si>
     <t>Zzzzdonoyuse</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 3 pk
+</t>
+  </si>
+  <si>
     <t>Zzzzzzzzdo not use</t>
   </si>
   <si>
+    <t>Zzzzzzzzzzzzdo not use</t>
+  </si>
+  <si>
     <t>Equipment</t>
   </si>
   <si>
+    <t>Chainsaws</t>
+  </si>
+  <si>
+    <t>Stihl</t>
+  </si>
+  <si>
+    <t>DeWalt Light</t>
+  </si>
+  <si>
+    <t>Acme Tools</t>
+  </si>
+  <si>
+    <t>Drill (Impact)</t>
+  </si>
+  <si>
+    <t>Drill (Regular)</t>
+  </si>
+  <si>
+    <t>Multi-Tool</t>
+  </si>
+  <si>
+    <t>Post Hole Diggers</t>
+  </si>
+  <si>
     <t>Push Lawn Mower</t>
   </si>
   <si>
+    <t>Sawzall</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>Skillsaw</t>
+  </si>
+  <si>
     <t>Snow Blower</t>
   </si>
   <si>
+    <t>Snow Shovels</t>
+  </si>
+  <si>
+    <t>Speed Bumps</t>
+  </si>
+  <si>
+    <t>Logan Contractors Supply, Inc</t>
+  </si>
+  <si>
+    <t>Sprayer Backpacks</t>
+  </si>
+  <si>
+    <t>Trim Nailer</t>
+  </si>
+  <si>
+    <t>Battery powered brad nailer</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Weed Whips</t>
+  </si>
+  <si>
+    <t>VanWall Equipment</t>
+  </si>
+  <si>
     <t>Exterior</t>
   </si>
   <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
+  </si>
+  <si>
+    <t>1 unit=1 box</t>
+  </si>
+  <si>
+    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311384</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
     <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
+  </si>
+  <si>
     <t>4x4 slider</t>
   </si>
   <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
     <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311371</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
     <t>Address #3</t>
   </si>
   <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
     <t>Crestline 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Garage Door Rolled Steel Lift Handles</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack
+</t>
+  </si>
+  <si>
+    <t>4311444</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
+    <t>Jeld Wen 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Jeld Wen 5' Window Screen30</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
     <t>Jelly Jar replacement globes</t>
   </si>
   <si>
+    <t>LH Service door</t>
+  </si>
+  <si>
+    <t>4140337</t>
+  </si>
+  <si>
     <t>Master key locking mechanisms (deadbolts)</t>
   </si>
   <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
     <t>Plastic Universal outlet cover-clear</t>
   </si>
   <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
+  </si>
+  <si>
     <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
   </si>
   <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
     <t>Interior Decor</t>
   </si>
   <si>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+  </si>
+  <si>
+    <t>Pine board</t>
+  </si>
+  <si>
+    <t>1031405</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>6 panel RH Interior Door</t>
   </si>
   <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>Brass Bed &amp; Bath Privacy Door Knob</t>
+  </si>
+  <si>
+    <t>2218421</t>
+  </si>
+  <si>
+    <t>Brass Hall &amp; Closet Passage Door Knob</t>
+  </si>
+  <si>
+    <t>2218434</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
+  </si>
+  <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
   </si>
   <si>
+    <t>ct as sngl - comes in 10 pk
+</t>
+  </si>
+  <si>
+    <t>3712324</t>
+  </si>
+  <si>
+    <t>Ivory Duplex Outlet Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712308</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>5412091</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
+  </si>
+  <si>
+    <t>Satin Nickel hall &amp; closet door knob</t>
+  </si>
+  <si>
+    <t>2218720</t>
+  </si>
+  <si>
+    <t>Satin nickel lock set for bathroom</t>
+  </si>
+  <si>
+    <t>2218721</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Trim for inside Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>Tru-Bolt Lowell Satin Nickel Passage Door Lever</t>
+  </si>
+  <si>
+    <t>Levered door handle- satin nickel</t>
+  </si>
+  <si>
+    <t>4404737</t>
+  </si>
+  <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
     <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
   </si>
   <si>
+    <t>3715730</t>
+  </si>
+  <si>
     <t>ZZZCANNOT DELETE - IGNORE</t>
   </si>
   <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
     <t>Zzzzzdo not use</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
+  </si>
+  <si>
+    <t>6799739</t>
+  </si>
+  <si>
+    <t>1-Spray Chrome Fixed Mount Showerhead</t>
+  </si>
+  <si>
+    <t>6781269</t>
+  </si>
+  <si>
+    <t>1/2 coupler for quick connector</t>
+  </si>
+  <si>
+    <t>1/2 coupler</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valves</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
     <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
   </si>
   <si>
+    <t>6641300</t>
+  </si>
+  <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
     <t>Bathroom Sink Faucet</t>
   </si>
   <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
     <t>Chrome Pop-Up Bathroom Sink Drain</t>
   </si>
   <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
     <t>Plumb Works? Chrome Diverter Tub Spout</t>
   </si>
   <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
     <t>Replacement Toilet Flange Repair Kit</t>
   </si>
   <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
     <t>Zznotuse</t>
   </si>
   <si>
@@ -219,10 +1169,19 @@
     <t>ZZZ8' x 11" press board for below sinks</t>
   </si>
   <si>
+    <t>1361012</t>
+  </si>
+  <si>
     <t>ZZZOateyCANNOT DELETE - IGNORE</t>
   </si>
   <si>
+    <t>6641269</t>
+  </si>
+  <si>
     <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
+  </si>
+  <si>
+    <t>6641298</t>
   </si>
   <si>
     <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
@@ -235,11 +1194,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt formatCode="yyyy/mm/dd" numFmtId="100"/>
     <numFmt formatCode="yyyy/mm/dd hh:mm:ss" numFmtId="101"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="102"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="103"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -267,6 +1228,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <b val="1"/>
       <name val="Arial"/>
       <family val="1"/>
       <color rgb="FF303030"/>
@@ -345,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,6 +1335,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="102" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="103" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -375,7 +1351,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -383,6 +1359,12 @@
   <cols>
     <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="74.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="19.5" min="5" max="5" bestFit="1" customWidth="1"/>
+    <col width="13.65" min="6" max="6" bestFit="1" customWidth="1"/>
+    <col width="54.0" min="7" max="7" bestFit="1" customWidth="1"/>
+    <col width="57.599999999999994" min="8" max="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -390,38 +1372,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -430,376 +1454,4374 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>437.63</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>534.99</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>56</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>45</v>
+        <v>94</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>85.59</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>51</v>
+        <v>109</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>100.33</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>110</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>54</v>
+        <v>114</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>116</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>118</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="8"/>
+      <c r="A54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>352.03</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>170.13</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>576.73</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>235.56</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" s="9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="9" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F135" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="9" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="9" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D144" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F145" s="9" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D151" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F152" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="9" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F156" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" s="9" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="9" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F165" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D166" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="9" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="9" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D170" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F172" s="9" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" s="9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F174" s="9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F180" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" s="9" t="n">
+        <v>105.93</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F184" s="9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D185" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D186" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" s="9" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D187" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="10" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 05:05 AM</t>
+      <t>12/28/2024 09:47 AM</t>
     </r>
   </si>
   <si>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/28/2024 09:47 AM</t>
+      <t>01/07/2025 08:54 PM</t>
     </r>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
@@ -2108,7 +2108,7 @@
         <v>76</v>
       </c>
       <c r="D35" s="9" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>15</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>113</v>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>35</v>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>15</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>15</v>
@@ -5805,7 +5805,7 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="10" t="n">
-        <v>728.0</v>
+        <v>719.0</v>
       </c>
       <c r="E191" s="8"/>
       <c r="F191" s="10"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="376" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="377" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>01/07/2025 08:54 PM</t>
+      <t>03/24/2025 09:07 PM</t>
     </r>
   </si>
   <si>
@@ -99,31 +99,88 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6831555</t>
   </si>
   <si>
-    <t>6" Drip Pan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dey Distributing Inc</t>
-  </si>
-  <si>
-    <t>6" GE drip pan</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>WB32X5075</t>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
   </si>
   <si>
     <t>6" GE element</t>
@@ -135,151 +192,22 @@
     <t>Menards</t>
   </si>
   <si>
-    <t>6" Heating Element</t>
-  </si>
-  <si>
-    <t>8" Drip Pan</t>
-  </si>
-  <si>
-    <t>8" GE drip pan</t>
-  </si>
-  <si>
-    <t>WB32X5076</t>
-  </si>
-  <si>
     <t>8" GE element</t>
   </si>
   <si>
     <t>469-0612</t>
   </si>
   <si>
-    <t>8" Heating element</t>
-  </si>
-  <si>
     <t>Criterion Crisper Drawer</t>
   </si>
   <si>
     <t>Crisper Drawer for fridge</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CTMR180M1W</t>
   </si>
   <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
-    <t>Richmond? Electric Water Heater Tune Up Kit</t>
-  </si>
-  <si>
-    <t>6832301</t>
-  </si>
-  <si>
-    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
-  </si>
-  <si>
-    <t>6235506</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
-  </si>
-  <si>
-    <t>6933108</t>
-  </si>
-  <si>
     <t>Electrical</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 10 pk</t>
-  </si>
-  <si>
-    <t>3639850</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>3639863</t>
-  </si>
-  <si>
-    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639834</t>
-  </si>
-  <si>
-    <t>15-Amp White Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639847</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3633944</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
-  </si>
-  <si>
-    <t>3633946</t>
-  </si>
-  <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -292,235 +220,17 @@
     <t>3534371</t>
   </si>
   <si>
-    <t>A15 LED FAN Bulb - 60 Watt</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3530189</t>
-  </si>
-  <si>
-    <t>AA-Batteries</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5756024</t>
-  </si>
-  <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
-  </si>
-  <si>
-    <t>B10 FAN Light Bulbs - 60 W</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pk</t>
+    <t>Zzzzdonoyuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk
+</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Blank box cap</t>
-  </si>
-  <si>
-    <t>3713417</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Baseboard heater</t>
-  </si>
-  <si>
-    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
     <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Replacement light cover w grill</t>
-  </si>
-  <si>
-    <t>611-2202</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>stelpro wall thermostat</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>Zzznot use</t>
   </si>
   <si>
     <t>Zzzz do not use</t>
@@ -530,11 +240,70 @@
 </t>
   </si>
   <si>
-    <t>Zzzzdonoyuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk
-</t>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Zzznot use</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
   </si>
   <si>
     <t>Zzzzzzzzdo not use</t>
@@ -543,6 +312,243 @@
     <t>Zzzzzzzzzzzzdo not use</t>
   </si>
   <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Baseboard heater</t>
+  </si>
+  <si>
+    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>AA-Batteries</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5756024</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
+    <t>B10 FAN Light Bulbs - 60 W</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>Replacement light cover w grill</t>
+  </si>
+  <si>
+    <t>611-2202</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>52" ceiling fan</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -576,9 +582,6 @@
     <t>Sawzall</t>
   </si>
   <si>
-    <t>Lowes</t>
-  </si>
-  <si>
     <t>Skillsaw</t>
   </si>
   <si>
@@ -603,133 +606,91 @@
     <t>Battery powered brad nailer</t>
   </si>
   <si>
+    <t>Weed Whips</t>
+  </si>
+  <si>
+    <t>VanWall Equipment</t>
+  </si>
+  <si>
     <t>Universal garage door remote</t>
   </si>
   <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Weed Whips</t>
-  </si>
-  <si>
-    <t>VanWall Equipment</t>
-  </si>
-  <si>
     <t>Exterior</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
-  </si>
-  <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
   </si>
   <si>
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
+  </si>
+  <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311384</t>
   </si>
   <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
-  </si>
-  <si>
-    <t>4366468</t>
-  </si>
-  <si>
     <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311371</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Address #0</t>
-  </si>
-  <si>
-    <t>Address #1</t>
-  </si>
-  <si>
-    <t>Address #2</t>
-  </si>
-  <si>
-    <t>Address #3</t>
-  </si>
-  <si>
-    <t>Address #4</t>
-  </si>
-  <si>
-    <t>Address #5</t>
-  </si>
-  <si>
-    <t>Address #6</t>
-  </si>
-  <si>
-    <t>Address #7</t>
-  </si>
-  <si>
-    <t>Address #8</t>
-  </si>
-  <si>
-    <t>Address #9</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -742,25 +703,94 @@
     <t>4311444</t>
   </si>
   <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>Master key locking mechanisms (deadbolts)</t>
+  </si>
+  <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
   </si>
   <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Jeld Wen 5' Window Screen30</t>
   </si>
   <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
-  </si>
-  <si>
-    <t>Jelly Jar replacement globes</t>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
   </si>
   <si>
     <t>LH Service door</t>
@@ -769,76 +799,49 @@
     <t>4140337</t>
   </si>
   <si>
-    <t>Master key locking mechanisms (deadbolts)</t>
-  </si>
-  <si>
-    <t>Security Equipment, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Plastic Universal outlet cover-clear</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
-  </si>
-  <si>
-    <t>Windsor 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Windsor 5' Window Screen</t>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
-  </si>
-  <si>
-    <t>Pine board</t>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>Zzzzzdo not use</t>
   </si>
   <si>
     <t>1031405</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
   </si>
   <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
@@ -851,18 +854,6 @@
   </si>
   <si>
     <t>2218434</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>6751654</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -881,16 +872,70 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Trim for inside Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
     <t>5412091</t>
   </si>
   <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
@@ -905,15 +950,6 @@
     <t>2218721</t>
   </si>
   <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Trim for inside Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
-  </si>
-  <si>
     <t>Tru-Bolt Lowell Satin Nickel Passage Door Lever</t>
   </si>
   <si>
@@ -923,60 +959,219 @@
     <t>4404737</t>
   </si>
   <si>
-    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
-  </si>
-  <si>
-    <t>3712337</t>
-  </si>
-  <si>
-    <t>White Duplex Outlet Wall Plate- 10 pk</t>
-  </si>
-  <si>
-    <t>3712311</t>
-  </si>
-  <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>Zzzzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+  </si>
+  <si>
+    <t>Pine board</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>Zzz do not use</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
     <t>6799739</t>
   </si>
   <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
     <t>1-Spray Chrome Fixed Mount Showerhead</t>
   </si>
   <si>
     <t>6781269</t>
   </si>
   <si>
+    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>ZZZ2CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>ZZZ8' x 11" press board for below sinks</t>
+  </si>
+  <si>
+    <t>1361012</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Zznotuse</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
     <t>1/2 coupler for quick connector</t>
   </si>
   <si>
@@ -989,202 +1184,10 @@
     <t>1/2 female connector for shower valves</t>
   </si>
   <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
     <t>Air Ventilator Motor Kit</t>
   </si>
   <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pk</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>replacement faucet handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
     <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>Zznotuse</t>
-  </si>
-  <si>
-    <t>Zzz do not use</t>
-  </si>
-  <si>
-    <t>ZZZ2CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>ZZZ8' x 11" press board for below sinks</t>
-  </si>
-  <si>
-    <t>1361012</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
-  </si>
-  <si>
-    <t>6641298</t>
-  </si>
-  <si>
-    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
   </si>
   <si>
     <t>Total</t>
@@ -1351,7 +1354,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1482,18 +1485,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1504,17 +1507,19 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1526,19 +1531,17 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1546,23 +1549,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>1.81</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1570,21 +1571,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1592,21 +1595,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>1.81</v>
+        <v>11.47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1614,23 +1617,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>6.71</v>
+        <v>31.0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1642,19 +1645,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>40.11</v>
+        <v>534.99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1662,21 +1665,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>17.1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1684,19 +1689,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>33.23</v>
+        <v>17.53</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -1715,14 +1718,14 @@
         <v>3.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>647.35</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1730,23 +1733,21 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>437.63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -1754,23 +1755,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>31.0</v>
+        <v>437.63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1778,23 +1779,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>534.99</v>
+        <v>37.44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1802,21 +1803,23 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>40.11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1824,24 +1827,24 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7"/>
       <c r="D24" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>17.1</v>
+        <v>33.23</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
@@ -1854,19 +1857,19 @@
         <v>52</v>
       </c>
       <c r="D25" s="9" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>0.67</v>
+        <v>2.08</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1877,22 +1880,22 @@
         <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>0.67</v>
+        <v>2.49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1900,25 +1903,25 @@
         <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F27" s="9" t="n">
-        <v>0.6</v>
+        <v>2.04</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1926,25 +1929,21 @@
         <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1952,25 +1951,23 @@
         <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1978,25 +1975,23 @@
         <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2004,23 +1999,23 @@
         <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>7.47</v>
+        <v>52.42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -2028,23 +2023,23 @@
         <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>32.07</v>
+        <v>53.49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2052,23 +2047,23 @@
         <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>5.34</v>
+        <v>9.58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2076,25 +2071,25 @@
         <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9" t="n">
-        <v>40.0</v>
+        <v>53.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>1.11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2102,25 +2097,23 @@
         <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="9" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>2.08</v>
+        <v>23.51</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2128,25 +2121,23 @@
         <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>4.54</v>
+        <v>11.76</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2156,21 +2147,23 @@
       <c r="B37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" s="9" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>0.45</v>
+        <v>13.24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2182,19 +2175,19 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>91.58</v>
+        <v>7.47</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2202,25 +2195,23 @@
         <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2228,23 +2219,25 @@
         <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D40" s="9" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>1.61</v>
+        <v>0.67</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -2252,25 +2245,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D41" s="9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>1.98</v>
+        <v>0.67</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2278,23 +2271,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D42" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>52.42</v>
+        <v>0.6</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -2302,23 +2297,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D43" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>53.49</v>
+        <v>0.6</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -2326,25 +2323,23 @@
         <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>85.59</v>
+        <v>32.07</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -2352,23 +2347,25 @@
         <v>50</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D45" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>34.23</v>
+        <v>21.31</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -2376,10 +2373,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>5.0</v>
@@ -2388,11 +2385,13 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>1.92</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H46" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -2400,21 +2399,25 @@
         <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D47" s="9" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>2.32</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -2422,23 +2425,23 @@
         <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>9.58</v>
+        <v>7.47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -2446,21 +2449,23 @@
         <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G49" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="H49" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -2468,23 +2473,21 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>23.51</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -2492,25 +2495,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="9" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>2.49</v>
+        <v>9.19</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -2518,23 +2519,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H52" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -2542,23 +2545,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D53" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>5.87</v>
+        <v>13.19</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -2566,25 +2571,23 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="9" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -2592,25 +2595,23 @@
         <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>1.92</v>
+        <v>7.09</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2618,25 +2619,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -2644,23 +2641,21 @@
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -2668,23 +2663,21 @@
         <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>39.99</v>
+      </c>
+      <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -2692,23 +2685,23 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>7.47</v>
+        <v>10.65</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -2716,21 +2709,25 @@
         <v>50</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D60" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G60" s="7"/>
+        <v>1.98</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -2738,23 +2735,23 @@
         <v>50</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>9.19</v>
+        <v>91.58</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -2762,23 +2759,23 @@
         <v>50</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>7.09</v>
+        <v>34.23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -2786,23 +2783,25 @@
         <v>50</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="9" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -2810,21 +2809,21 @@
         <v>50</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>35.0</v>
+        <v>19.27</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -2832,21 +2831,21 @@
         <v>50</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>45.0</v>
+        <v>100.33</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -2854,21 +2853,23 @@
         <v>50</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="7"/>
       <c r="D66" s="9" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>39.99</v>
+        <v>43.85</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -2878,19 +2879,23 @@
       <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="D67" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="G67" s="7"/>
+        <v>85.59</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="H67" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
@@ -2898,23 +2903,25 @@
         <v>50</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D68" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>10.65</v>
+        <v>13.24</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -2922,25 +2929,23 @@
         <v>50</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="C69" s="7"/>
       <c r="D69" s="9" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>21.31</v>
+        <v>0.45</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -2948,23 +2953,23 @@
         <v>50</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>5.87</v>
+        <v>1.61</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -2972,21 +2977,25 @@
         <v>50</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D71" s="9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G71" s="7"/>
+        <v>2.04</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H71" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -2994,25 +3003,23 @@
         <v>50</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C72" s="7"/>
       <c r="D72" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>2.04</v>
+        <v>16.11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -3020,25 +3027,25 @@
         <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D73" s="9" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>2.49</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -3046,52 +3053,48 @@
         <v>50</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="C74" s="7"/>
       <c r="D74" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>352.03</v>
+        <v>54.71</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>164</v>
@@ -3101,10 +3104,10 @@
         <v>1.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
@@ -3113,7 +3116,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>166</v>
@@ -3123,129 +3126,129 @@
         <v>1.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>191.53</v>
+        <v>95.23</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>173</v>
@@ -3255,2562 +3258,2584 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>0.0</v>
+        <v>95.23</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="7"/>
       <c r="D89" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>6.96</v>
+        <v>0.0</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F90" s="9" t="n">
         <v>255.73</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>187</v>
-      </c>
+        <v>6.96</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D92" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F92" s="9" t="n">
         <v>37.17</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>17.64</v>
+        <v>6.72</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>235.56</v>
+        <v>0.91</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>201</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>266.75</v>
+        <v>0.91</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F102" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F103" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G107" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="H107" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G108" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="D109" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>0.91</v>
+        <v>5.0</v>
       </c>
       <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>0.91</v>
+        <v>55.64</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G112" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="H112" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G113" s="7"/>
+        <v>8.53</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="H113" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>225</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>5.34</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D116" s="9" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+        <v>0.33</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D117" s="9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F117" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="H117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="H118" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C120" s="7"/>
+      <c r="C120" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D120" s="9" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G120" s="7"/>
       <c r="H120" s="7" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D121" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>55.64</v>
+        <v>37.45</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D122" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="D123" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G123" s="7"/>
       <c r="H123" s="7" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G124" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="H124" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>255.0</v>
+        <v>373.43</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G126" s="7"/>
+        <v>255.0</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="H126" s="7" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G127" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="H127" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>10.69</v>
+        <v>235.56</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>250</v>
-      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>266.75</v>
+      </c>
+      <c r="G129" s="7"/>
       <c r="H129" s="7" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F130" s="9" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="H130" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>3.83</v>
+        <v>11.76</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>127.33</v>
+        <v>10.68</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>127.33</v>
+        <v>3.19</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>11.22</v>
+        <v>12.82</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B137" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>46.86</v>
+        <v>0.39</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D138" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="H138" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D139" s="9" t="n">
         <v>13.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D140" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F140" s="9" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="H140" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>12.82</v>
+        <v>7.46</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>12.29</v>
+        <v>3.19</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>14.41</v>
+        <v>3.83</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="D144" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F144" s="9" t="n">
         <v>10.15</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>285</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>22.79</v>
+        <v>3.18</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>269</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>0.39</v>
+        <v>127.33</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>269</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>0.38</v>
+        <v>127.33</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>7.46</v>
+        <v>35.67</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>3.19</v>
+        <v>46.86</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>3.18</v>
+        <v>12.29</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C151" s="7"/>
       <c r="D151" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>2.13</v>
+        <v>14.41</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C152" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="D152" s="9" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>11.76</v>
+        <v>22.79</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C153" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>8.55</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>304</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>306</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C155" s="7"/>
       <c r="D155" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>8.24</v>
+        <v>21.39</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="D156" s="9" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>5.99</v>
+        <v>1.31</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>9.62</v>
+        <v>9.61</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C158" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D158" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>12.27</v>
+        <v>4.26</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>4.78</v>
+        <v>37.66</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C160" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D160" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G160" s="7"/>
+        <v>2.66</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="H160" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>10.56</v>
+        <v>4.78</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>21.39</v>
+        <v>3.95</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>11.76</v>
+        <v>9.62</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>6.41</v>
+        <v>19.25</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B166" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F166" s="9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="H166" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>9.61</v>
+        <v>6.41</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>4.26</v>
+        <v>7.48</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>37.66</v>
+        <v>11.76</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>337</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C170" s="7"/>
       <c r="D170" s="9" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>2.32</v>
+        <v>8.55</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>9.62</v>
+        <v>2.97</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>19.25</v>
+        <v>6.41</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>344</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>1.28</v>
+        <v>7.48</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C174" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="D174" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D177" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C178" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="D178" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>73.83</v>
+        <v>2.32</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C179" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="D179" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>5.34</v>
+        <v>6.79</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>11.76</v>
+        <v>6.4</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F181" s="9" t="n">
         <v>105.93</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>6.4</v>
+        <v>73.83</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>73.83</v>
+        <v>12.27</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G184" s="7"/>
+        <v>10.56</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="H184" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B185" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H185" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D185" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F185" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="C186" s="7"/>
       <c r="D186" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F186" s="9" t="n">
-        <v>6.79</v>
+        <v>5.99</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>369</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>370</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="D187" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F187" s="9" t="n">
-        <v>2.66</v>
+        <v>8.24</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C188" s="7"/>
+        <v>373</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="D188" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F188" s="9" t="n">
-        <v>2.97</v>
+        <v>5.99</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>374</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F189" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>309</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190"/>
-    <row r="191">
-      <c r="A191" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="10" t="n">
-        <v>719.0</v>
-      </c>
-      <c r="E191" s="8"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191"/>
+    <row r="192">
+      <c r="A192" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="10" t="n">
+        <v>852.0</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>03/24/2025 09:07 PM</t>
+      <t>03/28/2025 08:09 AM</t>
     </r>
   </si>
   <si>
@@ -2405,7 +2405,7 @@
         <v>107</v>
       </c>
       <c r="D47" s="9" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>56</v>
@@ -5830,7 +5830,7 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="10" t="n">
-        <v>852.0</v>
+        <v>850.0</v>
       </c>
       <c r="E192" s="8"/>
       <c r="F192" s="10"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="377" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="376" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>03/28/2025 08:09 AM</t>
+      <t>01/07/2025 08:54 PM</t>
     </r>
   </si>
   <si>
@@ -99,6 +99,15 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>3/4" x 18" Water Heater Supply Line</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6831555</t>
+  </si>
+  <si>
     <t>6" Drip Pan</t>
   </si>
   <si>
@@ -117,12 +126,18 @@
     <t>WB32X5075</t>
   </si>
   <si>
+    <t>6" GE element</t>
+  </si>
+  <si>
+    <t>469-0610</t>
+  </si>
+  <si>
+    <t>Menards</t>
+  </si>
+  <si>
     <t>6" Heating Element</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>8" Drip Pan</t>
   </si>
   <si>
@@ -132,82 +147,139 @@
     <t>WB32X5076</t>
   </si>
   <si>
+    <t>8" GE element</t>
+  </si>
+  <si>
+    <t>469-0612</t>
+  </si>
+  <si>
     <t>8" Heating element</t>
   </si>
   <si>
+    <t>Criterion Crisper Drawer</t>
+  </si>
+  <si>
+    <t>Crisper Drawer for fridge</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CTMR180M1W</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
     <t>Richmond? Electric Water Heater Tune Up Kit</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>6832301</t>
   </si>
   <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
     <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6235506</t>
   </si>
   <si>
+    <t>Stove</t>
+  </si>
+  <si>
     <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
   </si>
   <si>
     <t>6933108</t>
   </si>
   <si>
-    <t>3/4" x 18" Water Heater Supply Line</t>
-  </si>
-  <si>
-    <t>6831555</t>
-  </si>
-  <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>6" GE element</t>
-  </si>
-  <si>
-    <t>469-0610</t>
-  </si>
-  <si>
-    <t>Menards</t>
-  </si>
-  <si>
-    <t>8" GE element</t>
-  </si>
-  <si>
-    <t>469-0612</t>
-  </si>
-  <si>
-    <t>Criterion Crisper Drawer</t>
-  </si>
-  <si>
-    <t>Crisper Drawer for fridge</t>
-  </si>
-  <si>
-    <t>CTMR180M1W</t>
-  </si>
-  <si>
     <t>Electrical</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -220,6 +292,244 @@
     <t>3534371</t>
   </si>
   <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>AA-Batteries</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5756024</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>B10 FAN Light Bulbs - 60 W</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Baseboard heater</t>
+  </si>
+  <si>
+    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Replacement light cover w grill</t>
+  </si>
+  <si>
+    <t>611-2202</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Zzznot use</t>
+  </si>
+  <si>
+    <t>Zzzz do not use</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk
+</t>
+  </si>
+  <si>
     <t>Zzzzdonoyuse</t>
   </si>
   <si>
@@ -227,361 +537,48 @@
 </t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>Zzzz do not use</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pk
-</t>
-  </si>
-  <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Zzznot use</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
     <t>Zzzzzzzzdo not use</t>
   </si>
   <si>
     <t>Zzzzzzzzzzzzdo not use</t>
   </si>
   <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 10 pk</t>
-  </si>
-  <si>
-    <t>3639850</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>3639863</t>
-  </si>
-  <si>
-    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639834</t>
-  </si>
-  <si>
-    <t>15-Amp White Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639847</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3633944</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
-  </si>
-  <si>
-    <t>3633946</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>A15 LED FAN Bulb - 60 Watt</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3530189</t>
-  </si>
-  <si>
-    <t>stelpro wall thermostat</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Baseboard heater</t>
-  </si>
-  <si>
-    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>AA-Batteries</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5756024</t>
-  </si>
-  <si>
-    <t>Blank box cap</t>
-  </si>
-  <si>
-    <t>3713417</t>
-  </si>
-  <si>
-    <t>B10 FAN Light Bulbs - 60 W</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pk</t>
-  </si>
-  <si>
-    <t>Replacement light cover w grill</t>
-  </si>
-  <si>
-    <t>611-2202</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>52" ceiling fan</t>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Chainsaws</t>
+  </si>
+  <si>
+    <t>Stihl</t>
+  </si>
+  <si>
+    <t>DeWalt Light</t>
+  </si>
+  <si>
+    <t>Acme Tools</t>
+  </si>
+  <si>
+    <t>Drill (Impact)</t>
+  </si>
+  <si>
+    <t>Drill (Regular)</t>
+  </si>
+  <si>
+    <t>Multi-Tool</t>
+  </si>
+  <si>
+    <t>Post Hole Diggers</t>
+  </si>
+  <si>
+    <t>Push Lawn Mower</t>
+  </si>
+  <si>
+    <t>Sawzall</t>
   </si>
   <si>
     <t>Lowes</t>
   </si>
   <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Chainsaws</t>
-  </si>
-  <si>
-    <t>Stihl</t>
-  </si>
-  <si>
-    <t>DeWalt Light</t>
-  </si>
-  <si>
-    <t>Acme Tools</t>
-  </si>
-  <si>
-    <t>Drill (Impact)</t>
-  </si>
-  <si>
-    <t>Drill (Regular)</t>
-  </si>
-  <si>
-    <t>Multi-Tool</t>
-  </si>
-  <si>
-    <t>Post Hole Diggers</t>
-  </si>
-  <si>
-    <t>Push Lawn Mower</t>
-  </si>
-  <si>
-    <t>Sawzall</t>
-  </si>
-  <si>
     <t>Skillsaw</t>
   </si>
   <si>
@@ -606,33 +603,93 @@
     <t>Battery powered brad nailer</t>
   </si>
   <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
     <t>Weed Whips</t>
   </si>
   <si>
     <t>VanWall Equipment</t>
   </si>
   <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Exterior</t>
   </si>
   <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
   </si>
   <si>
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311384</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
+  </si>
+  <si>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
     <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
     <t>4366468</t>
   </si>
   <si>
+    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311371</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Address #0</t>
   </si>
   <si>
@@ -663,34 +720,16 @@
     <t>Address #9</t>
   </si>
   <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
-  </si>
-  <si>
-    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
-  </si>
-  <si>
-    <t>4311384</t>
-  </si>
-  <si>
-    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
-  </si>
-  <si>
-    <t>4311371</t>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -703,157 +742,127 @@
     <t>4311444</t>
   </si>
   <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
+    <t>Jeld Wen 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Jeld Wen 5' Window Screen30</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
     <t>Jelly Jar replacement globes</t>
   </si>
   <si>
+    <t>LH Service door</t>
+  </si>
+  <si>
+    <t>4140337</t>
+  </si>
+  <si>
     <t>Master key locking mechanisms (deadbolts)</t>
   </si>
   <si>
     <t>Security Equipment, Inc.</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
-  </si>
-  <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
   </si>
   <si>
     <t>Plastic Universal outlet cover-clear</t>
   </si>
   <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
+  </si>
+  <si>
     <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
   </si>
   <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>Jeld Wen 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Jeld Wen 5' Window Screen30</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
-  </si>
-  <si>
     <t>Windsor 4' Window Screen</t>
   </si>
   <si>
     <t>Windsor 5' Window Screen</t>
   </si>
   <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>LH Service door</t>
-  </si>
-  <si>
-    <t>4140337</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>Zzzzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+  </si>
+  <si>
+    <t>Pine board</t>
   </si>
   <si>
     <t>1031405</t>
   </si>
   <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>Brass Bed &amp; Bath Privacy Door Knob</t>
+  </si>
+  <si>
+    <t>2218421</t>
+  </si>
+  <si>
+    <t>Brass Hall &amp; Closet Passage Door Knob</t>
+  </si>
+  <si>
+    <t>2218434</t>
+  </si>
+  <si>
     <t>Chrome Toilet Paper Holder</t>
   </si>
   <si>
     <t>6751654</t>
   </si>
   <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
-  </si>
-  <si>
-    <t>Brass Bed &amp; Bath Privacy Door Knob</t>
-  </si>
-  <si>
-    <t>2218421</t>
-  </si>
-  <si>
-    <t>Brass Hall &amp; Closet Passage Door Knob</t>
-  </si>
-  <si>
-    <t>2218434</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -872,6 +881,48 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>5412091</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
+  </si>
+  <si>
+    <t>Satin Nickel hall &amp; closet door knob</t>
+  </si>
+  <si>
+    <t>2218720</t>
+  </si>
+  <si>
+    <t>Satin nickel lock set for bathroom</t>
+  </si>
+  <si>
+    <t>2218721</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Trim for inside Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>Tru-Bolt Lowell Satin Nickel Passage Door Lever</t>
+  </si>
+  <si>
+    <t>Levered door handle- satin nickel</t>
+  </si>
+  <si>
+    <t>4404737</t>
+  </si>
+  <si>
     <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
   </si>
   <si>
@@ -890,118 +941,235 @@
     <t>3451973</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Trim for inside Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
   </si>
   <si>
     <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
   </si>
   <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>5412091</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
-  </si>
-  <si>
-    <t>Satin Nickel hall &amp; closet door knob</t>
-  </si>
-  <si>
-    <t>2218720</t>
-  </si>
-  <si>
-    <t>Satin nickel lock set for bathroom</t>
-  </si>
-  <si>
-    <t>2218721</t>
-  </si>
-  <si>
-    <t>Tru-Bolt Lowell Satin Nickel Passage Door Lever</t>
-  </si>
-  <si>
-    <t>Levered door handle- satin nickel</t>
-  </si>
-  <si>
-    <t>4404737</t>
-  </si>
-  <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
-  </si>
-  <si>
-    <t>Pine board</t>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>Zzzzzdo not use</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
+  </si>
+  <si>
+    <t>6799739</t>
+  </si>
+  <si>
+    <t>1-Spray Chrome Fixed Mount Showerhead</t>
+  </si>
+  <si>
+    <t>6781269</t>
+  </si>
+  <si>
+    <t>1/2 coupler for quick connector</t>
+  </si>
+  <si>
+    <t>1/2 coupler</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valves</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Zznotuse</t>
+  </si>
+  <si>
     <t>Zzz do not use</t>
   </si>
   <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
+    <t>ZZZ2CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>ZZZ8' x 11" press board for below sinks</t>
+  </si>
+  <si>
+    <t>1361012</t>
   </si>
   <si>
     <t>ZZZOateyCANNOT DELETE - IGNORE</t>
@@ -1010,184 +1178,13 @@
     <t>6641269</t>
   </si>
   <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
-    <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
-  </si>
-  <si>
-    <t>6799739</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>1-Spray Chrome Fixed Mount Showerhead</t>
-  </si>
-  <si>
-    <t>6781269</t>
-  </si>
-  <si>
     <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
   </si>
   <si>
     <t>6641298</t>
   </si>
   <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>ZZZ2CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pk</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>ZZZ8' x 11" press board for below sinks</t>
-  </si>
-  <si>
-    <t>1361012</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Zznotuse</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>replacement faucet handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
     <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
-  </si>
-  <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>1/2 coupler for quick connector</t>
-  </si>
-  <si>
-    <t>1/2 coupler</t>
-  </si>
-  <si>
-    <t>680-9810</t>
-  </si>
-  <si>
-    <t>1/2 female connector for shower valves</t>
-  </si>
-  <si>
-    <t>Air Ventilator Motor Kit</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
   </si>
   <si>
     <t>Total</t>
@@ -1354,7 +1351,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1485,18 +1482,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+        <v>17.53</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1507,19 +1504,17 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1531,17 +1526,19 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1549,21 +1546,23 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>37.44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1571,23 +1570,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1595,21 +1592,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>11.47</v>
+        <v>1.81</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1617,23 +1614,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>31.0</v>
+        <v>6.71</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1645,19 +1642,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>534.99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1665,23 +1662,21 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>11.47</v>
+      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1689,17 +1684,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" s="9" t="n">
-        <v>17.53</v>
+        <v>33.23</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -1718,14 +1715,14 @@
         <v>3.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>647.35</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -1733,21 +1730,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>437.63</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -1755,23 +1754,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>437.63</v>
+        <v>31.0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1779,23 +1778,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>37.44</v>
+        <v>534.99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -1803,23 +1802,21 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>492.2</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1827,24 +1824,24 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>33.23</v>
+        <v>17.1</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
@@ -1857,19 +1854,19 @@
         <v>52</v>
       </c>
       <c r="D25" s="9" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>2.08</v>
+        <v>0.67</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1880,22 +1877,22 @@
         <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -1903,25 +1900,25 @@
         <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>2.04</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1929,21 +1926,25 @@
         <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="H28" s="7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -1951,23 +1952,25 @@
         <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>5.87</v>
+        <v>13.19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -1975,23 +1978,25 @@
         <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D30" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>5.87</v>
+        <v>13.19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -1999,23 +2004,23 @@
         <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>52.42</v>
+        <v>7.47</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -2023,23 +2028,23 @@
         <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>53.49</v>
+        <v>32.07</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -2047,23 +2052,23 @@
         <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>9.58</v>
+        <v>5.34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -2071,25 +2076,25 @@
         <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" s="9" t="n">
-        <v>53.0</v>
+        <v>40.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>1.11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -2097,23 +2102,25 @@
         <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="9" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>23.51</v>
+        <v>2.08</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -2121,23 +2128,25 @@
         <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F36" s="9" t="n">
-        <v>11.76</v>
+        <v>4.54</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -2147,23 +2156,21 @@
       <c r="B37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F37" s="9" t="n">
-        <v>13.24</v>
+        <v>0.45</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2175,19 +2182,19 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>7.47</v>
+        <v>91.58</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -2195,23 +2202,25 @@
         <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D39" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>5.34</v>
+        <v>2.04</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -2219,25 +2228,23 @@
         <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="9" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>0.67</v>
+        <v>1.61</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -2245,25 +2252,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>0.67</v>
+        <v>1.98</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -2271,25 +2278,23 @@
         <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>0.6</v>
+        <v>52.42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -2297,25 +2302,23 @@
         <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>0.6</v>
+        <v>53.49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -2323,23 +2326,25 @@
         <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D44" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>32.07</v>
+        <v>85.59</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2347,25 +2352,23 @@
         <v>50</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>21.31</v>
+        <v>34.23</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -2373,10 +2376,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>5.0</v>
@@ -2385,13 +2388,11 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>43.85</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -2399,25 +2400,21 @@
         <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="9" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>100.33</v>
+      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
@@ -2425,23 +2422,23 @@
         <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>7.47</v>
+        <v>9.58</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -2449,23 +2446,21 @@
         <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>112</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -2473,21 +2468,23 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G50" s="7"/>
+        <v>23.51</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="H50" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -2495,23 +2492,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D51" s="9" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>9.19</v>
+        <v>2.49</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -2519,25 +2518,23 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>13.19</v>
+        <v>11.76</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -2545,25 +2542,23 @@
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
@@ -2571,23 +2566,25 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D54" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>7.09</v>
+        <v>13.24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
@@ -2595,23 +2592,25 @@
         <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D55" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>7.09</v>
+        <v>1.92</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -2619,21 +2618,25 @@
         <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D56" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G56" s="7"/>
+        <v>2.32</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="H56" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
@@ -2641,21 +2644,23 @@
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G57" s="7"/>
+        <v>16.11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="H57" s="7" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
@@ -2663,21 +2668,23 @@
         <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="9" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H58" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -2685,23 +2692,23 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>10.65</v>
+        <v>7.47</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
@@ -2709,25 +2716,21 @@
         <v>50</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>132</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
@@ -2735,23 +2738,23 @@
         <v>50</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>91.58</v>
+        <v>9.19</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
@@ -2759,23 +2762,23 @@
         <v>50</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>34.23</v>
+        <v>7.09</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -2783,25 +2786,23 @@
         <v>50</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C63" s="7"/>
       <c r="D63" s="9" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>4.54</v>
+        <v>7.09</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
@@ -2809,21 +2810,21 @@
         <v>50</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>19.27</v>
+        <v>35.0</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -2831,21 +2832,21 @@
         <v>50</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>100.33</v>
+        <v>45.0</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -2853,23 +2854,21 @@
         <v>50</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="7" t="s">
         <v>145</v>
       </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>43.85</v>
+        <v>39.99</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -2879,23 +2878,19 @@
       <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>85.59</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>19.27</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
@@ -2903,25 +2898,23 @@
         <v>50</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>13.24</v>
+        <v>10.65</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
@@ -2929,23 +2922,25 @@
         <v>50</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="7"/>
       <c r="D69" s="9" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="H69" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -2953,23 +2948,23 @@
         <v>50</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>1.61</v>
+        <v>5.87</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -2977,25 +2972,21 @@
         <v>50</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="9" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72">
@@ -3003,23 +2994,25 @@
         <v>50</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D72" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>16.11</v>
+        <v>2.04</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -3027,25 +3020,25 @@
         <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="D73" s="9" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>2.49</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -3053,48 +3046,52 @@
         <v>50</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="7"/>
       <c r="D74" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G74" s="7"/>
+        <v>13.24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H74" s="7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>54.71</v>
+        <v>352.03</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>164</v>
@@ -3104,10 +3101,10 @@
         <v>1.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>352.03</v>
+        <v>73.83</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
@@ -3116,7 +3113,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>166</v>
@@ -3126,129 +3123,129 @@
         <v>1.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>73.83</v>
+        <v>171.19</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>171.19</v>
+        <v>95.23</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>95.23</v>
+        <v>191.53</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>191.53</v>
+        <v>37.45</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>37.45</v>
+        <v>255.73</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>255.73</v>
+        <v>170.13</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>173</v>
@@ -3258,2584 +3255,2562 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>170.13</v>
+        <v>191.53</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>191.53</v>
+        <v>576.73</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>576.73</v>
+        <v>26.75</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>26.75</v>
+        <v>267.49</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>267.49</v>
+        <v>95.23</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="D88" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>95.23</v>
+        <v>0.0</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="7" t="s">
         <v>181</v>
       </c>
+      <c r="C89" s="7"/>
       <c r="D89" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>0.0</v>
+        <v>6.96</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F90" s="9" t="n">
         <v>255.73</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="G91" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F92" s="9" t="n">
         <v>37.17</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>6.72</v>
+        <v>17.64</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G94" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="7"/>
+        <v>194</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="D95" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G95" s="7"/>
+        <v>0.33</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H95" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>0.91</v>
+        <v>235.56</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G97" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H97" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>0.91</v>
+        <v>266.75</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G99" s="7"/>
+        <v>6.72</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="H99" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="D101" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G101" s="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="H101" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F102" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F103" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>202</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G105" s="7"/>
       <c r="H105" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G106" s="7"/>
       <c r="H106" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>213</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G109" s="7"/>
       <c r="H109" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>5.0</v>
+        <v>0.91</v>
       </c>
       <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>55.64</v>
+        <v>0.91</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C112" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="D112" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>218</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G112" s="7"/>
       <c r="H112" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C113" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="D113" s="9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>220</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G113" s="7"/>
       <c r="H113" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" s="7"/>
+        <v>224</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="D114" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G114" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="H114" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G115" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>228</v>
+      </c>
       <c r="H115" s="7" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D116" s="9" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D117" s="9" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F117" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C118" s="7"/>
       <c r="D118" s="9" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>13.89</v>
+        <v>8.53</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="9" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>37.45</v>
+        <v>5.0</v>
       </c>
       <c r="G119" s="7"/>
-      <c r="H119" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="H119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>228</v>
-      </c>
+      <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G120" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="H120" s="7" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C121" s="7"/>
       <c r="D121" s="9" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>37.45</v>
+        <v>55.64</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G122" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="H122" s="7" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="G123" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="H123" s="7" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>5.34</v>
+      </c>
+      <c r="G124" s="7"/>
       <c r="H124" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>373.43</v>
+        <v>255.0</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>243</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G126" s="7"/>
       <c r="H126" s="7" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C127" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="D127" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>245</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G127" s="7"/>
       <c r="H127" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C128" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="D128" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>235.56</v>
+        <v>10.69</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C129" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="D129" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>266.75</v>
-      </c>
-      <c r="G129" s="7"/>
+        <v>11.76</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>251</v>
+      </c>
       <c r="H129" s="7" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C130" s="7"/>
       <c r="D130" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>2.13</v>
+        <v>3.19</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>11.76</v>
+        <v>3.83</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>10.68</v>
+        <v>127.33</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>3.19</v>
+        <v>127.33</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>12.82</v>
+        <v>11.22</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>11.22</v>
+        <v>10.15</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>10.15</v>
+        <v>10.68</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>0.39</v>
+        <v>46.86</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D138" s="9" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D139" s="9" t="n">
         <v>13.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>266</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C140" s="7"/>
       <c r="D140" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>0.38</v>
+        <v>35.67</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>7.46</v>
+        <v>12.82</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>3.19</v>
+        <v>12.29</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>3.83</v>
+        <v>14.41</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D144" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F144" s="9" t="n">
         <v>10.15</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C145" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="D145" s="9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>3.18</v>
+        <v>22.79</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C146" s="7"/>
+        <v>287</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D146" s="9" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>127.33</v>
+        <v>0.39</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" s="7"/>
+        <v>289</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="D147" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>127.33</v>
+        <v>0.38</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>35.67</v>
+        <v>7.46</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>46.86</v>
+        <v>3.19</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>12.29</v>
+        <v>3.18</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C151" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="D151" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>14.41</v>
+        <v>2.13</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>297</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>22.79</v>
+        <v>11.76</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>300</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>11.76</v>
+        <v>3.95</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G154" s="7"/>
+        <v>8.55</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="H154" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C155" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="D155" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>21.39</v>
+        <v>8.24</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="D156" s="9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>1.31</v>
+        <v>5.99</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>9.61</v>
+        <v>9.62</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>4.26</v>
+        <v>12.27</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>37.66</v>
+        <v>4.78</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>315</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G160" s="7"/>
       <c r="H160" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>4.78</v>
+        <v>10.56</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>3.95</v>
+        <v>21.39</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>9.62</v>
+        <v>6.41</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>9.62</v>
+        <v>11.76</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>19.25</v>
+        <v>6.41</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C166" s="7"/>
+        <v>327</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D166" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>11.76</v>
+        <v>1.31</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>6.41</v>
+        <v>9.61</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C168" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D168" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>7.48</v>
+        <v>4.26</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>11.76</v>
+        <v>37.66</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C170" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="D170" s="9" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>8.55</v>
+        <v>2.32</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>2.97</v>
+        <v>9.62</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>6.41</v>
+        <v>19.25</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C173" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="D173" s="9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>7.48</v>
+        <v>1.28</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>343</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C174" s="7"/>
       <c r="D174" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>1.28</v>
+        <v>5.55</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>5.55</v>
+        <v>2.45</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C177" s="7"/>
       <c r="D177" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>5.34</v>
+        <v>7.48</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>352</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>2.32</v>
+        <v>73.83</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C179" s="7"/>
       <c r="D179" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>6.79</v>
+        <v>5.34</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>6.4</v>
+        <v>11.76</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F181" s="9" t="n">
         <v>105.93</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>73.83</v>
+        <v>6.4</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>12.27</v>
+        <v>73.83</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G184" s="7"/>
       <c r="H184" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C185" s="7"/>
+        <v>367</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="D185" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>2.45</v>
+        <v>5.34</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C186" s="7"/>
+      <c r="C186" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="D186" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F186" s="9" t="n">
-        <v>5.99</v>
+        <v>6.79</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>369</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>370</v>
       </c>
       <c r="C187" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D187" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D187" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F187" s="9" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="H187" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B188" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D188" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F188" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="H188" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>374</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F189" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G189" s="7"/>
+        <v>5.99</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="H189" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B190" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F190" s="9" t="n">
-        <v>73.83</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="191"/>
-    <row r="192">
-      <c r="A192" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="10" t="n">
-        <v>850.0</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="10" t="n">
+        <v>719.0</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="376" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="378" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>01/07/2025 08:54 PM</t>
+      <t>06/08/2025 12:32 PM</t>
     </r>
   </si>
   <si>
@@ -99,31 +99,88 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6831555</t>
   </si>
   <si>
-    <t>6" Drip Pan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dey Distributing Inc</t>
-  </si>
-  <si>
-    <t>6" GE drip pan</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>WB32X5075</t>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
   </si>
   <si>
     <t>6" GE element</t>
@@ -135,151 +192,22 @@
     <t>Menards</t>
   </si>
   <si>
-    <t>6" Heating Element</t>
-  </si>
-  <si>
-    <t>8" Drip Pan</t>
-  </si>
-  <si>
-    <t>8" GE drip pan</t>
-  </si>
-  <si>
-    <t>WB32X5076</t>
-  </si>
-  <si>
     <t>8" GE element</t>
   </si>
   <si>
     <t>469-0612</t>
   </si>
   <si>
-    <t>8" Heating element</t>
-  </si>
-  <si>
     <t>Criterion Crisper Drawer</t>
   </si>
   <si>
     <t>Crisper Drawer for fridge</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>CTMR180M1W</t>
   </si>
   <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
-    <t>Richmond? Electric Water Heater Tune Up Kit</t>
-  </si>
-  <si>
-    <t>6832301</t>
-  </si>
-  <si>
-    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
-  </si>
-  <si>
-    <t>6235506</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
-  </si>
-  <si>
-    <t>6933108</t>
-  </si>
-  <si>
     <t>Electrical</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 10 pk</t>
-  </si>
-  <si>
-    <t>3639850</t>
-  </si>
-  <si>
-    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
-  </si>
-  <si>
-    <t>3639863</t>
-  </si>
-  <si>
-    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639834</t>
-  </si>
-  <si>
-    <t>15-Amp White Duplex Outlet - 10 pk</t>
-  </si>
-  <si>
-    <t>3639847</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3633944</t>
-  </si>
-  <si>
-    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
-  </si>
-  <si>
-    <t>3633946</t>
-  </si>
-  <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -292,235 +220,17 @@
     <t>3534371</t>
   </si>
   <si>
-    <t>A15 LED FAN Bulb - 60 Watt</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3530189</t>
-  </si>
-  <si>
-    <t>AA-Batteries</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5756024</t>
-  </si>
-  <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
-  </si>
-  <si>
-    <t>B10 FAN Light Bulbs - 60 W</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pk</t>
+    <t>Zzzzdonoyuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk
+</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Blank box cap</t>
-  </si>
-  <si>
-    <t>3713417</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Baseboard heater</t>
-  </si>
-  <si>
-    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage is attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
-    <t>Electronic Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
     <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Replacement light cover w grill</t>
-  </si>
-  <si>
-    <t>611-2202</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>stelpro wall thermostat</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>Zzznot use</t>
   </si>
   <si>
     <t>Zzzz do not use</t>
@@ -530,11 +240,70 @@
 </t>
   </si>
   <si>
-    <t>Zzzzdonoyuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 3 pk
-</t>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Zzznot use</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
   </si>
   <si>
     <t>Zzzzzzzzdo not use</t>
@@ -543,6 +312,243 @@
     <t>Zzzzzzzzzzzzdo not use</t>
   </si>
   <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>Cadet 72" White 1500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Baseboard heater</t>
+  </si>
+  <si>
+    <t>Model Number: 09956 Menards ® SKU: 3354005</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>AA-Batteries</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5756024</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
+    <t>B10 FAN Light Bulbs - 60 W</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>Replacement light cover w grill</t>
+  </si>
+  <si>
+    <t>611-2202</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>52" ceiling fan</t>
+  </si>
+  <si>
+    <t>Lowes</t>
+  </si>
+  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -576,9 +582,6 @@
     <t>Sawzall</t>
   </si>
   <si>
-    <t>Lowes</t>
-  </si>
-  <si>
     <t>Skillsaw</t>
   </si>
   <si>
@@ -603,133 +606,94 @@
     <t>Battery powered brad nailer</t>
   </si>
   <si>
+    <t>Weed Whips</t>
+  </si>
+  <si>
+    <t>236E-Stihl</t>
+  </si>
+  <si>
+    <t>VanWall Equipment</t>
+  </si>
+  <si>
     <t>Universal garage door remote</t>
   </si>
   <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Weed Whips</t>
-  </si>
-  <si>
-    <t>VanWall Equipment</t>
-  </si>
-  <si>
     <t>Exterior</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
-  </si>
-  <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
   </si>
   <si>
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
+  </si>
+  <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311384</t>
   </si>
   <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
-  </si>
-  <si>
-    <t>4366468</t>
-  </si>
-  <si>
     <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311371</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Address #0</t>
-  </si>
-  <si>
-    <t>Address #1</t>
-  </si>
-  <si>
-    <t>Address #2</t>
-  </si>
-  <si>
-    <t>Address #3</t>
-  </si>
-  <si>
-    <t>Address #4</t>
-  </si>
-  <si>
-    <t>Address #5</t>
-  </si>
-  <si>
-    <t>Address #6</t>
-  </si>
-  <si>
-    <t>Address #7</t>
-  </si>
-  <si>
-    <t>Address #8</t>
-  </si>
-  <si>
-    <t>Address #9</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -742,25 +706,94 @@
     <t>4311444</t>
   </si>
   <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>Master key locking mechanisms (deadbolts)</t>
+  </si>
+  <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
   </si>
   <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Jeld Wen 5' Window Screen30</t>
   </si>
   <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
-  </si>
-  <si>
-    <t>Jelly Jar replacement globes</t>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
   </si>
   <si>
     <t>LH Service door</t>
@@ -769,76 +802,49 @@
     <t>4140337</t>
   </si>
   <si>
-    <t>Master key locking mechanisms (deadbolts)</t>
-  </si>
-  <si>
-    <t>Security Equipment, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Plastic Universal outlet cover-clear</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
-  </si>
-  <si>
-    <t>Windsor 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Windsor 5' Window Screen</t>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
-  </si>
-  <si>
-    <t>Pine board</t>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>Zzzzzdo not use</t>
   </si>
   <si>
     <t>1031405</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
   </si>
   <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
@@ -851,18 +857,6 @@
   </si>
   <si>
     <t>2218434</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>6751654</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -881,16 +875,70 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Trim for inside Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
     <t>5412091</t>
   </si>
   <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
@@ -905,15 +953,6 @@
     <t>2218721</t>
   </si>
   <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Trim for inside Ac</t>
-  </si>
-  <si>
-    <t>103-7010</t>
-  </si>
-  <si>
     <t>Tru-Bolt Lowell Satin Nickel Passage Door Lever</t>
   </si>
   <si>
@@ -923,60 +962,219 @@
     <t>4404737</t>
   </si>
   <si>
-    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
-  </si>
-  <si>
-    <t>3712337</t>
-  </si>
-  <si>
-    <t>White Duplex Outlet Wall Plate- 10 pk</t>
-  </si>
-  <si>
-    <t>3712311</t>
-  </si>
-  <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>Zzzzzdo not use</t>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+  </si>
+  <si>
+    <t>Pine board</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>Zzz do not use</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
     <t>6799739</t>
   </si>
   <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
     <t>1-Spray Chrome Fixed Mount Showerhead</t>
   </si>
   <si>
     <t>6781269</t>
   </si>
   <si>
+    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>ZZZ2CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>ZZZ8' x 11" press board for below sinks</t>
+  </si>
+  <si>
+    <t>1361012</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Zznotuse</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
     <t>1/2 coupler for quick connector</t>
   </si>
   <si>
@@ -989,202 +1187,10 @@
     <t>1/2 female connector for shower valves</t>
   </si>
   <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
     <t>Air Ventilator Motor Kit</t>
   </si>
   <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pk</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>replacement faucet handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
     <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>Zznotuse</t>
-  </si>
-  <si>
-    <t>Zzz do not use</t>
-  </si>
-  <si>
-    <t>ZZZ2CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>ZZZ8' x 11" press board for below sinks</t>
-  </si>
-  <si>
-    <t>1361012</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
-  </si>
-  <si>
-    <t>6641298</t>
-  </si>
-  <si>
-    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
   </si>
   <si>
     <t>Total</t>
@@ -1351,13 +1357,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="20.75166666666667" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="74.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
     <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
     <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
@@ -1482,18 +1488,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1504,17 +1510,19 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1526,19 +1534,17 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1546,23 +1552,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>1.81</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1570,21 +1574,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1592,21 +1598,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>1.81</v>
+        <v>11.47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1614,23 +1620,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>6.71</v>
+        <v>31.0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1642,19 +1648,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>40.11</v>
+        <v>534.99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1662,21 +1668,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>17.1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1684,19 +1692,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>33.23</v>
+        <v>17.53</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>36</v>
@@ -1712,17 +1718,17 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>647.35</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -1730,23 +1736,21 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>437.63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -1754,23 +1758,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>31.0</v>
+        <v>437.63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1778,23 +1782,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>534.99</v>
+        <v>37.44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1802,21 +1806,23 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>40.11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1824,24 +1830,24 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7"/>
       <c r="D24" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>17.1</v>
+        <v>33.23</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
@@ -1854,19 +1860,19 @@
         <v>52</v>
       </c>
       <c r="D25" s="9" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>0.67</v>
+        <v>2.08</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1877,22 +1883,22 @@
         <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>0.67</v>
+        <v>2.49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1900,25 +1906,25 @@
         <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F27" s="9" t="n">
-        <v>0.6</v>
+        <v>2.04</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1926,25 +1932,21 @@
         <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
@@ -1952,25 +1954,23 @@
         <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1978,25 +1978,23 @@
         <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>13.19</v>
+        <v>5.87</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -2004,23 +2002,23 @@
         <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>7.47</v>
+        <v>52.42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -2028,23 +2026,23 @@
         <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>32.07</v>
+        <v>53.49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2052,23 +2050,23 @@
         <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>5.34</v>
+        <v>9.58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2076,25 +2074,25 @@
         <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>1.11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2102,25 +2100,23 @@
         <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>2.08</v>
+        <v>23.51</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2128,25 +2124,23 @@
         <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>4.54</v>
+        <v>11.76</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2156,21 +2150,23 @@
       <c r="B37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" s="9" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>0.45</v>
+        <v>13.24</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2182,19 +2178,19 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>91.58</v>
+        <v>7.47</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2202,25 +2198,23 @@
         <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2228,23 +2222,25 @@
         <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D40" s="9" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>1.61</v>
+        <v>0.67</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -2252,25 +2248,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D41" s="9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>1.98</v>
+        <v>0.67</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2278,23 +2274,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D42" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>52.42</v>
+        <v>0.6</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -2302,23 +2300,25 @@
         <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D43" s="9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>53.49</v>
+        <v>0.6</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -2326,25 +2326,23 @@
         <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>85.59</v>
+        <v>32.07</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -2352,23 +2350,25 @@
         <v>50</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D45" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>34.23</v>
+        <v>21.39</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -2376,10 +2376,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>5.0</v>
@@ -2388,11 +2388,13 @@
         <v>21</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G46" s="7"/>
+        <v>1.92</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="H46" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -2400,21 +2402,25 @@
         <v>50</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D47" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>2.32</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -2422,23 +2428,23 @@
         <v>50</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>9.58</v>
+        <v>7.47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -2446,21 +2452,23 @@
         <v>50</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G49" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="H49" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -2468,23 +2476,21 @@
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>23.51</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -2492,25 +2498,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="9" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>2.49</v>
+        <v>9.19</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -2518,23 +2522,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H52" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -2542,23 +2548,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D53" s="9" t="n">
         <v>3.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>5.87</v>
+        <v>13.19</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -2566,25 +2574,23 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="9" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -2592,25 +2598,23 @@
         <v>50</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>1.92</v>
+        <v>7.09</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2618,25 +2622,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>128</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>129</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -2644,23 +2644,21 @@
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -2668,23 +2666,21 @@
         <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>39.99</v>
+      </c>
+      <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -2692,23 +2688,23 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>7.47</v>
+        <v>10.65</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -2716,21 +2712,25 @@
         <v>50</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="D60" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G60" s="7"/>
+        <v>1.98</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H60" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -2738,23 +2738,23 @@
         <v>50</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>9.19</v>
+        <v>91.58</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -2762,23 +2762,23 @@
         <v>50</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>7.09</v>
+        <v>34.23</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -2786,23 +2786,25 @@
         <v>50</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="9" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -2810,21 +2812,21 @@
         <v>50</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>35.0</v>
+        <v>19.27</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -2832,21 +2834,21 @@
         <v>50</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>45.0</v>
+        <v>100.33</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -2854,21 +2856,23 @@
         <v>50</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="7"/>
       <c r="D66" s="9" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>39.99</v>
+        <v>43.85</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -2878,19 +2882,23 @@
       <c r="B67" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="D67" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="G67" s="7"/>
+        <v>85.59</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="H67" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
@@ -2898,23 +2906,25 @@
         <v>50</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D68" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>10.65</v>
+        <v>13.24</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -2922,25 +2932,23 @@
         <v>50</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="C69" s="7"/>
       <c r="D69" s="9" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>21.31</v>
+        <v>0.45</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -2948,23 +2956,23 @@
         <v>50</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>5.87</v>
+        <v>1.61</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -2972,21 +2980,25 @@
         <v>50</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="D71" s="9" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G71" s="7"/>
+        <v>2.04</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H71" s="7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -2994,25 +3006,23 @@
         <v>50</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C72" s="7"/>
       <c r="D72" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>2.04</v>
+        <v>16.11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -3020,25 +3030,25 @@
         <v>50</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D73" s="9" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>2.49</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -3046,52 +3056,48 @@
         <v>50</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="C74" s="7"/>
       <c r="D74" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F75" s="9" t="n">
-        <v>352.03</v>
+        <v>54.71</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>164</v>
@@ -3101,10 +3107,10 @@
         <v>1.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7" t="s">
@@ -3113,7 +3119,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>166</v>
@@ -3123,129 +3129,129 @@
         <v>1.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>191.53</v>
+        <v>95.23</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>173</v>
@@ -3255,163 +3261,165 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>175</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>0.0</v>
+        <v>95.23</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C89" s="7"/>
       <c r="D89" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>6.96</v>
+        <v>0.0</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="7"/>
       <c r="D90" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F90" s="9" t="n">
         <v>255.73</v>
@@ -3423,31 +3431,29 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>187</v>
-      </c>
+        <v>6.96</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>188</v>
@@ -3459,7 +3465,7 @@
         <v>3.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F92" s="9" t="n">
         <v>37.17</v>
@@ -3471,891 +3477,891 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>17.64</v>
+        <v>6.72</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>235.56</v>
+        <v>0.91</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>201</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>266.75</v>
+        <v>0.91</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>204</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>206</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>208</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F102" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F103" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="H106" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G107" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="H107" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G108" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="D109" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>0.91</v>
+        <v>5.0</v>
       </c>
       <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>0.91</v>
+        <v>55.64</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G112" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="H112" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>221</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G113" s="7"/>
+        <v>8.53</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="H113" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>5.34</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>228</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G115" s="7"/>
       <c r="H115" s="7" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D116" s="9" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+        <v>0.33</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D117" s="9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F117" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
-        <v>222</v>
-      </c>
+      <c r="H117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B118" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C118" s="7"/>
       <c r="D118" s="9" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>8.53</v>
+        <v>13.89</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>232</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="7"/>
+      <c r="C119" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D119" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>5.0</v>
+        <v>37.45</v>
       </c>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D120" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="7"/>
+      <c r="C121" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D121" s="9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>55.64</v>
+        <v>37.45</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D122" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>239</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D123" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G123" s="7"/>
       <c r="H123" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G124" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="H124" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>255.0</v>
+        <v>373.43</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G126" s="7"/>
+        <v>255.0</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="H126" s="7" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B127" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G127" s="7"/>
       <c r="H127" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>10.69</v>
+        <v>235.56</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>250</v>
-      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>266.75</v>
+      </c>
+      <c r="G129" s="7"/>
       <c r="H129" s="7" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="7"/>
       <c r="D130" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>3.19</v>
+        <v>2.13</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>254</v>
@@ -4365,265 +4371,269 @@
         <v>3.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>3.83</v>
+        <v>11.76</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>255</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>127.33</v>
+        <v>10.68</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>257</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>127.33</v>
+        <v>3.19</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>259</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>260</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>11.22</v>
+        <v>12.82</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>261</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="9" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>263</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>265</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="7"/>
+      <c r="C137" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="D137" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>46.86</v>
+        <v>0.39</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D138" s="9" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>270</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>271</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D139" s="9" t="n">
         <v>13.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>272</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="7"/>
+      <c r="C140" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="D140" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>35.67</v>
+        <v>0.38</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>12.82</v>
+        <v>7.46</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>276</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>277</v>
@@ -4633,21 +4643,21 @@
         <v>3.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>12.29</v>
+        <v>3.19</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>278</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>279</v>
@@ -4657,21 +4667,21 @@
         <v>2.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>14.41</v>
+        <v>3.83</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>281</v>
@@ -4680,10 +4690,10 @@
         <v>282</v>
       </c>
       <c r="D144" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F144" s="9" t="n">
         <v>10.15</v>
@@ -4692,502 +4702,500 @@
         <v>283</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>22.79</v>
+        <v>3.18</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>269</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>0.39</v>
+        <v>127.33</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>269</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C147" s="7"/>
       <c r="D147" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>0.38</v>
+        <v>127.33</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>7.46</v>
+        <v>35.67</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>3.19</v>
+        <v>46.86</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>3.18</v>
+        <v>12.29</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C151" s="7"/>
       <c r="D151" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>2.13</v>
+        <v>14.41</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>296</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B152" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F152" s="9" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F152" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C153" s="7"/>
       <c r="D153" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>8.55</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>304</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="9" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D155" s="9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" s="9" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="H155" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D156" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F156" s="9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H156" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D156" s="9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F156" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>9.62</v>
+        <v>9.61</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B158" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" s="9" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H158" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>4.78</v>
+        <v>37.66</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B160" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D160" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F160" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G160" s="7"/>
       <c r="H160" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>317</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>10.56</v>
+        <v>4.78</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>318</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>319</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>21.39</v>
+        <v>3.95</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>320</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>321</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>322</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>323</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>11.76</v>
+        <v>9.62</v>
       </c>
       <c r="G164" s="7" t="s">
         <v>324</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>325</v>
@@ -5197,620 +5205,642 @@
         <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>6.41</v>
+        <v>19.25</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>326</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="C166" s="7"/>
       <c r="D166" s="9" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>1.31</v>
+        <v>11.76</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>328</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>9.61</v>
+        <v>6.41</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D168" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F168" s="9" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="H168" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>37.66</v>
+        <v>11.76</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B170" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D170" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F170" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="H170" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>9.62</v>
+        <v>2.97</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>19.25</v>
+        <v>6.41</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>344</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C173" s="7"/>
       <c r="D173" s="9" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>1.28</v>
+        <v>7.48</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C174" s="7"/>
+        <v>343</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="D174" s="9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="7"/>
+        <v>350</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="D177" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>7.48</v>
+        <v>5.34</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C178" s="7"/>
+        <v>352</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="D178" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>73.83</v>
+        <v>2.32</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C179" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="D179" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>5.34</v>
+        <v>6.79</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>11.76</v>
+        <v>6.4</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F181" s="9" t="n">
         <v>105.93</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>6.4</v>
+        <v>73.83</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>73.83</v>
+        <v>12.27</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G184" s="7"/>
+        <v>10.56</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="H184" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B185" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D185" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F185" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="H185" s="7" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>298</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C186" s="7"/>
       <c r="D186" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F186" s="9" t="n">
-        <v>6.79</v>
+        <v>5.99</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="D187" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F187" s="9" t="n">
-        <v>2.66</v>
+        <v>8.24</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C188" s="7"/>
+        <v>374</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="D188" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F188" s="9" t="n">
-        <v>2.97</v>
+        <v>5.99</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F189" s="9" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>309</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190"/>
-    <row r="191">
-      <c r="A191" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="10" t="n">
-        <v>719.0</v>
-      </c>
-      <c r="E191" s="8"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191"/>
+    <row r="192">
+      <c r="A192" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="10" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/osceola.xlsx
+++ b/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/17/2025 07:53 PM</t>
+      <t>06/17/2025 08:15 PM</t>
     </r>
   </si>
   <si>
